--- a/Analyzed/try6/data_2023.xlsx
+++ b/Analyzed/try6/data_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>58.35269727394594</v>
       </c>
       <c r="N2">
-        <v>164.192</v>
+        <v>604.0720000000001</v>
       </c>
       <c r="O2">
-        <v>1377.96</v>
+        <v>-172.04</v>
       </c>
       <c r="P2">
-        <v>571.7149128</v>
+        <v>468.0293895245269</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -583,16 +588,19 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>71.64853752287416</v>
       </c>
       <c r="N3">
-        <v>230.972</v>
+        <v>485.0160000000001</v>
       </c>
       <c r="O3">
-        <v>1130.65</v>
+        <v>-119.35</v>
       </c>
       <c r="P3">
-        <v>487.5129072</v>
+        <v>385.6874815950249</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -662,27 +670,30 @@
         <v>3</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <v>4</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
         <v>2</v>
       </c>
     </row>
@@ -729,13 +740,13 @@
         <v>68.48727319518591</v>
       </c>
       <c r="N4">
-        <v>140.084</v>
+        <v>389.592</v>
       </c>
       <c r="O4">
-        <v>1141.98</v>
+        <v>-108.02</v>
       </c>
       <c r="P4">
-        <v>551.6709335999999</v>
+        <v>450.3269087270857</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -753,28 +764,31 @@
         <v>5</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC4">
         <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>72.07494269303595</v>
       </c>
       <c r="N5">
-        <v>253.12</v>
+        <v>572.3760000000001</v>
       </c>
       <c r="O5">
-        <v>1232.19</v>
+        <v>-117.81</v>
       </c>
       <c r="P5">
-        <v>464.1090048</v>
+        <v>367.685322662213</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,28 +858,31 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>69.87816556548688</v>
       </c>
       <c r="N6">
-        <v>6.160000000000014</v>
+        <v>436.8000000000001</v>
       </c>
       <c r="O6">
-        <v>1232.89</v>
+        <v>-167.11</v>
       </c>
       <c r="P6">
-        <v>502.1789616</v>
+        <v>402.4919764284127</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,27 +952,30 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA6">
         <v>2</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6">
         <v>3</v>
       </c>
     </row>
@@ -1002,13 +1022,13 @@
         <v>65.9372744814941</v>
       </c>
       <c r="N7">
-        <v>216.188</v>
+        <v>473.5360000000001</v>
       </c>
       <c r="O7">
-        <v>1088.06</v>
+        <v>-111.94</v>
       </c>
       <c r="P7">
-        <v>473.5014192</v>
+        <v>363.1582616705131</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,27 +1046,30 @@
         <v>3</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
         <v>3</v>
       </c>
     </row>
@@ -1093,13 +1116,13 @@
         <v>71.27038749415638</v>
       </c>
       <c r="N8">
-        <v>118.524</v>
+        <v>699.4400000000001</v>
       </c>
       <c r="O8">
-        <v>1434.21</v>
+        <v>-215.79</v>
       </c>
       <c r="P8">
-        <v>483.4940976</v>
+        <v>373.6157625651216</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,28 +1140,31 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
         <v>6</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
       <c r="AA8">
         <v>2</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC8">
         <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>73.51880313171837</v>
       </c>
       <c r="N9">
-        <v>83.80400000000002</v>
+        <v>458.92</v>
       </c>
       <c r="O9">
-        <v>1343.51</v>
+        <v>-206.49</v>
       </c>
       <c r="P9">
-        <v>506.2081824000001</v>
+        <v>385.7576727193889</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,28 +1234,31 @@
         <v>5</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC9">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1275,13 +1304,13 @@
         <v>78.11961852877056</v>
       </c>
       <c r="N10">
-        <v>133.112</v>
+        <v>470.176</v>
       </c>
       <c r="O10">
-        <v>1297.75</v>
+        <v>-202.25</v>
       </c>
       <c r="P10">
-        <v>498.8562984</v>
+        <v>387.7061944677844</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1302,25 +1331,28 @@
         <v>3</v>
       </c>
       <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
         <v>5</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>3</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <v>4</v>
-      </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="Z10">
-        <v>3</v>
-      </c>
-      <c r="AA10">
-        <v>3</v>
-      </c>
-      <c r="AB10">
-        <v>2</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1366,13 +1398,13 @@
         <v>92.6296920659569</v>
       </c>
       <c r="N11">
-        <v>-49.58799999999999</v>
+        <v>396.9280000000001</v>
       </c>
       <c r="O11">
-        <v>1297.74</v>
+        <v>-252.26</v>
       </c>
       <c r="P11">
-        <v>418.5025488</v>
+        <v>314.0717548064203</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1390,10 +1422,10 @@
         <v>9</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1411,6 +1443,9 @@
         <v>0</v>
       </c>
       <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>0</v>
       </c>
     </row>
